--- a/public/assets/import/Format Import Loadsheet.xlsx
+++ b/public/assets/import/Format Import Loadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADI\Documents\Project\Management Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F26BAAC-9DFE-4D53-8DBD-4BCCB8A594B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5736D94-BFFA-4617-8EEB-646CB33E0C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9278C09A-7211-4205-9E5B-963C6DF19957}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7598472B-0AD5-46A8-B8B5-A908E50BC464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>date</t>
   </si>
   <si>
+    <t>nama_project</t>
+  </si>
+  <si>
     <t>asset_id</t>
   </si>
   <si>
     <t>hours</t>
   </si>
   <si>
-    <t>type</t>
+    <t>jenis_pekerjaan</t>
   </si>
   <si>
     <t>location</t>
@@ -59,7 +62,7 @@
     <t>kilometer</t>
   </si>
   <si>
-    <t>loadsheet</t>
+    <t>total_load</t>
   </si>
   <si>
     <t>perload</t>
@@ -68,12 +71,6 @@
     <t>lose_factor</t>
   </si>
   <si>
-    <t>cubication</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>billing_status</t>
   </si>
   <si>
@@ -83,25 +80,73 @@
     <t>bpit</t>
   </si>
   <si>
-    <t>Nama Project</t>
+    <t>Halmahera</t>
+  </si>
+  <si>
+    <t>AST - 1169</t>
+  </si>
+  <si>
+    <t>THERESIA YULIANA</t>
+  </si>
+  <si>
+    <t>Galian</t>
+  </si>
+  <si>
+    <t>STA 205+450 - STA 205+550</t>
   </si>
   <si>
     <t>Batik</t>
   </si>
   <si>
+    <t>Belum</t>
+  </si>
+  <si>
+    <t>-Exca 1 broken
+-Dozer meminjam PB 2</t>
+  </si>
+  <si>
+    <t>Disposal</t>
+  </si>
+  <si>
+    <t>AST - 1170</t>
+  </si>
+  <si>
+    <t>RONY CRISTIN</t>
+  </si>
+  <si>
     <t>Blue Clay</t>
   </si>
   <si>
-    <t>Halmahera</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Lokasi</t>
-  </si>
-  <si>
-    <t>Nama Karyawan</t>
+    <t>Sudah Ditagih</t>
+  </si>
+  <si>
+    <t>-Exca 1 broken
+-1 DT Stand by
+-Dozer pinjam punya PB 2</t>
+  </si>
+  <si>
+    <t>AST - 1171</t>
+  </si>
+  <si>
+    <t>EKRON MALAU</t>
+  </si>
+  <si>
+    <t>-Exca 1 broken
+-DT 2 dipinjam
+-Dozer pinjam punya PB 2</t>
+  </si>
+  <si>
+    <t>AST - 1172</t>
+  </si>
+  <si>
+    <t>FENDI SINAGA</t>
+  </si>
+  <si>
+    <t>-DT 2 dipinjam
+-Dozer pinjam punya PB 2</t>
+  </si>
+  <si>
+    <t>nama_karyawan</t>
   </si>
 </sst>
 </file>
@@ -154,14 +199,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,105 +541,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4579CD0-DC8E-4B60-8CE1-8919FD776562}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC597E-5118-4176-A05B-CF9BA89364C3}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2"/>
-    <col min="2" max="2" width="32.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2"/>
-    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
-    <col min="5" max="17" width="13.7109375" style="2"/>
-    <col min="18" max="16384" width="13.7109375" style="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45631</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J2" s="1">
+        <v>157</v>
+      </c>
+      <c r="K2" s="1">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>181</v>
+      </c>
+      <c r="K3" s="1">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45633</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>81</v>
+      </c>
+      <c r="K4" s="1">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>45631</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="5" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45634</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2">
-        <v>1172</v>
-      </c>
-      <c r="D2" s="2">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>292</v>
+      </c>
+      <c r="K5" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="2" t="s">
-        <v>17</v>
+      <c r="L5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
